--- a/medicine/Pharmacie/2024_en_santé_et_médecine/2024_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/2024_en_santé_et_médecine/2024_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2024_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 2024 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2024_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,30 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-x
-Février
-x
-Mars
-x
-Avril
-x
-Mai
-x
-Juin
-x
-Juillet
-x
-Août
-x
-Septembre
-x
-Octobre
-x
-Novembre
-x
-Décembre
-x</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -546,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2024_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,10 +556,408 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2024_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>x</t>
         </is>
